--- a/Project/Orange__HRM.xlsx
+++ b/Project/Orange__HRM.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seed Infotech\SEED_SDET_COURSE_MANUAL_TESTING\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd2f5f9e5268bfe9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262C7EBC-EC19-4A27-8AFF-44440F89E502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{262C7EBC-EC19-4A27-8AFF-44440F89E502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D405A6B5-A77E-4DBA-8109-24BD89693D73}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Divyam" sheetId="4" r:id="rId1"/>
+    <sheet name="Nachiket" sheetId="7" r:id="rId2"/>
+    <sheet name="Defect Report" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="428">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -643,13 +645,798 @@
   </si>
   <si>
     <t>Invalid Phone Number: 9876543210</t>
+  </si>
+  <si>
+    <t>Defect Report</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Orange HRM</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Type of Defect</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DEF_01</t>
+  </si>
+  <si>
+    <t>DEF_02</t>
+  </si>
+  <si>
+    <t>DEF_03</t>
+  </si>
+  <si>
+    <t>DEF_04</t>
+  </si>
+  <si>
+    <t>DEF_05</t>
+  </si>
+  <si>
+    <t>DEF_06</t>
+  </si>
+  <si>
+    <t>DEF_07</t>
+  </si>
+  <si>
+    <t>DEF_08</t>
+  </si>
+  <si>
+    <t>DEF_09</t>
+  </si>
+  <si>
+    <t>DEF_10</t>
+  </si>
+  <si>
+    <t>DEF_11</t>
+  </si>
+  <si>
+    <t>DEF_12</t>
+  </si>
+  <si>
+    <t>DEF_13</t>
+  </si>
+  <si>
+    <t>DEF_14</t>
+  </si>
+  <si>
+    <t>DEF_15</t>
+  </si>
+  <si>
+    <t>DEF_16</t>
+  </si>
+  <si>
+    <t>DEF_17</t>
+  </si>
+  <si>
+    <t>DEF_18</t>
+  </si>
+  <si>
+    <t>DEF_19</t>
+  </si>
+  <si>
+    <t>DEF_20</t>
+  </si>
+  <si>
+    <t>Pre-requisite</t>
+  </si>
+  <si>
+    <t>Logged in as admin, Navigated to PIM module</t>
+  </si>
+  <si>
+    <t>Logged in as admin, Navigated to 'Add Employee' page</t>
+  </si>
+  <si>
+    <t>Log in as admin</t>
+  </si>
+  <si>
+    <t>Navigate to 'Emergency Contacts' page</t>
+  </si>
+  <si>
+    <t>Navigate to 'Work Experience' page</t>
+  </si>
+  <si>
+    <t>Navigate to 'Languages' page</t>
+  </si>
+  <si>
+    <t>Navigate to 'Attachments' page</t>
+  </si>
+  <si>
+    <t>Contact Details:-</t>
+  </si>
+  <si>
+    <t>Test_Case_ID</t>
+  </si>
+  <si>
+    <t>Test_Case_Objective</t>
+  </si>
+  <si>
+    <t>Pre_Requisite</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Actual_Result</t>
+  </si>
+  <si>
+    <t>MT_NP01</t>
+  </si>
+  <si>
+    <t>Verify successful entry of all contact details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Contact Details' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid data in all contact fields.2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Country: India- Street 1: 123 Main St
+- Street 2: Apt 4B
+- City/Town: dhule
+- State/Province: NY
+- ZIP Code: 10001
+- Home Telephone: 555-1234
+- Mobile: 7028101775
+- Work Telephone: 555-8765- Work Email: employee@company.com
+- Other Email: employee.other@company.com</t>
+  </si>
+  <si>
+    <t>The contact details are correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t>MT_NP02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify reset functionality for contact details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Contact Details' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid data in all contact fields.2. Click 'Reset'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Country: india
+- Street 1: 123 Main St
+- Street 2: Apt 4B
+- City: dhule
+- State: NY
+- ZIP Code: 10001
+- Home Telephone: 555-1234
+- Mobile:7028101775
+- Work Telephone: 555-8765
+- Work Email: employee@company.com
+- Other Email: employee.other@company.com</t>
+  </si>
+  <si>
+    <t>All fields should be cleared.</t>
+  </si>
+  <si>
+    <t>MT_NP03</t>
+  </si>
+  <si>
+    <t>Verify mandatory fields in contact details.</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty (e.g., Country, Street 1).2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Country: [Empty]
+ Street 1: [Empty]</t>
+  </si>
+  <si>
+    <t>Appropriate error messages should be displayed for mandatory fields.</t>
+  </si>
+  <si>
+    <t>MT_NP04</t>
+  </si>
+  <si>
+    <t>Verify successful edit of contact details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Contact Details' page of a specific employee</t>
+  </si>
+  <si>
+    <t>1. Enter valid data in all contact fields.
+2. Click 'Save'.
+3. Edit the details.
+4. Click 'Save' again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Country: United States          edit:Country: India</t>
+  </si>
+  <si>
+    <t>The edited contact details are correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t>MT_NP05</t>
+  </si>
+  <si>
+    <t>Verify deletion of contact details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Contact Details' page of a specific employee, with at least one contact record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing contact entry.2. Click 'Delete'.</t>
+  </si>
+  <si>
+    <t>Existing Contact Entry: Home Telephone 7028101775</t>
+  </si>
+  <si>
+    <t>The contact entry should be removed from the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Immigration:-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify successful entry of immigration details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Immigration' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid immigration data (Passport Number, Issue Date, Expiry Date, Country).2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Passport Number: A1234567
+Issue Date: 2023-01-01
+Expiry Date: 2028-01-01
+Country: india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The immigration details are correctly displayed and saved.
+</t>
+  </si>
+  <si>
+    <t>Verify deletion of immigration details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Immigration' page of a specific employee, with at least one immigration record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing immigration entry.2. Click 'Delete'.</t>
+  </si>
+  <si>
+    <t>Existing Immigration Entry: Passport Number A1234567</t>
+  </si>
+  <si>
+    <t>The immigration entry should be removed from the list.</t>
+  </si>
+  <si>
+    <t>Verify mandatory fields in immigration details</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty (e.g., Passport Number).2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Passport Number: [Empty]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Appropriate error messages should be displayed for mandatory fields.</t>
+  </si>
+  <si>
+    <t>Verify successful edit of immigration details.</t>
+  </si>
+  <si>
+    <t>1. Select an existing immigration entry.2. Edit the details.3. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Passport Number: A7654321
+Issue Date: 2024-01-01                  Expiry Date: 2029-01-01           Country: India</t>
+  </si>
+  <si>
+    <t>The edited immigration details should be correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify multiple immigration records can be added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Immigration' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid immigration data for multiple records.2. Click 'Save' after each entry.</t>
+  </si>
+  <si>
+    <t>Record 1:
+  - Passport Number: A1234567
+  - Issue Date: 2023-01-01
+  - Expiry Date: 2028-01-01
+  - Country:india
+- Record 2:
+  - Passport Number: B2345678
+  - Issue Date: 2024-02-01
+  - Expiry Date: 2029-02-01
+  - Country: Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiple immigration records should be displayed and saved.</t>
+  </si>
+  <si>
+    <t>Salary:-</t>
+  </si>
+  <si>
+    <t>Verify successful entry of salary details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Salary' page of a specific employee.n</t>
+  </si>
+  <si>
+    <t>1. Enter valid salary data (Salary Component, Amount, Currency, Pay Frequency).                                                   2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Salary Component: Basic Salary
+Amount: 50000
+Currency: doller
+ Pay Frequency: Monthly</t>
+  </si>
+  <si>
+    <t>The salary details are correctly displayed and saved</t>
+  </si>
+  <si>
+    <t>Verify mandatory fields in salary details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Salary' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty (e.g., Salary Component, Amount).               2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Salary Component: [Empty]
+ Amount: [Empty]</t>
+  </si>
+  <si>
+    <t>Appropriate error messages should be displayed for mandatory field</t>
+  </si>
+  <si>
+    <t>Verify successful edit of salary details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Salary' page of a specific employee, with at least one salary record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing salary entry.        2. Edit the details.3. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Salary Component: Basic Salary
+Amount: 60000
+Currency: dollar
+Pay Frequency: Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The edited salary details are correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify deletion of salary details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Salary' page of a specific employee, with at least one salary record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing salary entry.
+2. Click 'Delete'.</t>
+  </si>
+  <si>
+    <t>Existing Salary Entry: Basic Salary 50000 doller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The salary entry should be removed from the list.</t>
+  </si>
+  <si>
+    <t>Verify multiple salary components  can be added for an employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid salary data for multiple components.
+2. Click 'Save' after each entry.</t>
+  </si>
+  <si>
+    <t>Component 1:
+  Salary Component: Basic Salary
+   Amount: 50000
+   Currency: doller
+   Pay Frequency: Monthly
+ Component 2:
+   Salary Component: Bonus
+   Amount: 10000
+   Currency: doller
+   Pay Frequency: Annually</t>
+  </si>
+  <si>
+    <t>Multiple salary components should be displayed and saved.</t>
+  </si>
+  <si>
+    <t>Report-To:-</t>
+  </si>
+  <si>
+    <t>Verify successful entry of report-to details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Report-To' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid report-to data (Supervisor/Subordinate, Name).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supervisor: Nachiket</t>
+  </si>
+  <si>
+    <t>The report-to details are correctly displayed and saved</t>
+  </si>
+  <si>
+    <t>Verify deletion of report-to details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Report-To' page of a specific employee, with at least one report-to record present</t>
+  </si>
+  <si>
+    <t>1. Select an existing report-to entry.
+2. Click 'Delete'</t>
+  </si>
+  <si>
+    <t>Existing Report-To Entry: Nachiket</t>
+  </si>
+  <si>
+    <t>The report-to entry should be removed from the list.</t>
+  </si>
+  <si>
+    <t>Verify multiple supervisors/subordinates can be assigned.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Report-To' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Assign multiple supervisors to a single employee.
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Supervisor 1: Vishal                   Supervisor2:Nachiket</t>
+  </si>
+  <si>
+    <t>All supervisor assignments should be correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify mandatory fields in report-to details.</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty (e.g., Name).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name: [Empty]</t>
+  </si>
+  <si>
+    <t>Verify successful edit of report-to details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Report-To' page of a specific employee, with at least one report-to record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing report-to entry.
+2. Edit the details.
+3. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>The edited report-to details should be correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t>Skills:-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify successful entry of skills</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Skills' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid skills data (Skill, Years of Experience).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Skill: Project Management
+ Years of Experience: 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The skill details are correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify deletion of skills.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Skills' page of a specific employee, with at least one skill record present</t>
+  </si>
+  <si>
+    <t>1. Select an existing skill entry.
+2. Click 'Delete'.</t>
+  </si>
+  <si>
+    <t>Existing Skill Entry: Project Management</t>
+  </si>
+  <si>
+    <t>The skill entry should be removed from the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify mandatory fields in skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Skills' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty (e.g., Skill Name).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Skill Name: [Empty]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify successful edit of skills.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Skills' page of a specific employee, with at least one skill record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing skill entry.
+2. Edit the details.
+3. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skill: Project Management
+ Years of Experience: 6</t>
+  </si>
+  <si>
+    <t>The edited skill details should be correctly displayed and saved</t>
+  </si>
+  <si>
+    <t>Verify multiple skills can be added for an employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid skills data for multiple skills.
+2. Click 'Save' after each entry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skill 1: Project Management
+ Years of Experience: 5
+ Skill 2: Data Analysis
+ Years of Experience: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiple skills should be displayed and saved.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membership</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:-</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify successful entry of membership details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Membership' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid membership data (Membership Name, Subscription Amount).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Membership Name: PMI
+Subscription Amount: 150</t>
+  </si>
+  <si>
+    <t>The membership details are correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify deletion of membership details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Membership' page of a specific employee, with at least one membership record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing membership entry.
+2. Click 'Delete'.</t>
+  </si>
+  <si>
+    <t>Existing Membership Entry: PMI</t>
+  </si>
+  <si>
+    <t>The membership entry should be removed from the list.</t>
+  </si>
+  <si>
+    <t>Verify mandatory fields in membership details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Membership' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty (e.g., Membership Name).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Membership Name: [Empty]</t>
+  </si>
+  <si>
+    <t>Verify successful edit of membership details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User logged in and on the 'Membership' page of a specific employee, with at least one membership record present.
+</t>
+  </si>
+  <si>
+    <t>1. Select an existing membership entry.
+2. Edit the details.
+3. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Membership Name: PMI
+ Subscription Amount: 200</t>
+  </si>
+  <si>
+    <t>The edited membership details should be correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify multiple memberships can be added for an employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid membership data for multiple memberships.
+2. Click 'Save' after each entry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Membership 1:
+   Membership Name: PMI
+   Subscription Amount: 150
+ Membership 2:
+   Membership Name: IEEE
+   Subscription Amount: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiple memberships should be displayed and saved.</t>
+  </si>
+  <si>
+    <t>Training Courses:-</t>
+  </si>
+  <si>
+    <t>Verify successful entry of training course details.</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Training Courses' page of a specific employee.</t>
+  </si>
+  <si>
+    <t>1. Enter valid training course data (Course Name, Status).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Course Name: Advanced Excel Training
+ Status: In Progress</t>
+  </si>
+  <si>
+    <t>The training course details are correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t>Verify deletion of training course details</t>
+  </si>
+  <si>
+    <t>User logged in and on the 'Training Courses' page of a specific employee, with at least one training course record present.</t>
+  </si>
+  <si>
+    <t>1. Select an existing training course.
+2. Click 'Delete'.</t>
+  </si>
+  <si>
+    <t>Existing Training Course: Advanced Excel Training</t>
+  </si>
+  <si>
+    <t>The training course entry should be removed from the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify mandatory fields in training course details.</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty (e.g., Course Name).
+2. Click 'Save'.</t>
+  </si>
+  <si>
+    <t>Course Name: [Empty]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify successful edit of training  course details.</t>
+  </si>
+  <si>
+    <t>1. Select an existing training course.
+2. Edit the details.
+3. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Course Name: Advanced Excel Training
+Status: Completed</t>
+  </si>
+  <si>
+    <t>The edited training course details should be correctly displayed and saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify multiple training courses can be added for an employee</t>
+  </si>
+  <si>
+    <t>1. Enter valid training course data for multiple courses.
+2. Click 'Save' after each entry.</t>
+  </si>
+  <si>
+    <t>Course 1:
+   Course Name: Advanced Excel Training
+   Status: In Progress
+Course 2:
+   Course Name: Leadership Training
+   Status: Not Started</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiple training courses should be displayed and saved.</t>
+  </si>
+  <si>
+    <t>Nachiket pawar</t>
+  </si>
+  <si>
+    <t>Divyam</t>
+  </si>
+  <si>
+    <t>Shreya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +1452,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +1501,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -703,15 +1537,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,39 +1933,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374B1143-24FA-4048-AE17-0760302532C8}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" customWidth="1"/>
     <col min="2" max="2" width="63.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="155.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="142.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="155.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="142.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1032,22 +1979,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,18 +2005,21 @@
         <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,18 +2027,21 @@
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,18 +2049,21 @@
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,18 +2071,21 @@
         <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1131,18 +2093,21 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1150,18 +2115,21 @@
         <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1169,18 +2137,21 @@
         <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1188,18 +2159,21 @@
         <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1207,18 +2181,21 @@
         <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1226,23 +2203,26 @@
         <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1250,22 +2230,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1273,18 +2256,21 @@
         <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1292,18 +2278,21 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1311,18 +2300,21 @@
         <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1330,18 +2322,21 @@
         <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1349,18 +2344,21 @@
         <v>127</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1368,18 +2366,21 @@
         <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1387,18 +2388,21 @@
         <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1406,18 +2410,21 @@
         <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1425,18 +2432,21 @@
         <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1444,23 +2454,26 @@
         <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -1468,22 +2481,25 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1491,18 +2507,21 @@
         <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1510,23 +2529,26 @@
         <v>134</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,22 +2556,25 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1557,18 +2582,21 @@
         <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1576,18 +2604,21 @@
         <v>136</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -1595,18 +2626,21 @@
         <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -1614,18 +2648,21 @@
         <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1633,18 +2670,21 @@
         <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -1652,18 +2692,21 @@
         <v>139</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1671,18 +2714,21 @@
         <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1690,18 +2736,21 @@
         <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -1709,18 +2758,21 @@
         <v>142</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -1728,23 +2780,26 @@
         <v>143</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -1752,22 +2807,25 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -1775,18 +2833,21 @@
         <v>144</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
@@ -1794,18 +2855,21 @@
         <v>145</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
@@ -1813,18 +2877,21 @@
         <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
@@ -1832,18 +2899,21 @@
         <v>146</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -1851,23 +2921,26 @@
         <v>147</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
@@ -1875,22 +2948,25 @@
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -1898,18 +2974,21 @@
         <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -1917,18 +2996,21 @@
         <v>149</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -1936,18 +3018,21 @@
         <v>115</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -1955,18 +3040,21 @@
         <v>150</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -1974,18 +3062,2224 @@
         <v>151</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399919F7-28C2-4E59-BE87-597C73B727A1}">
+  <dimension ref="A1:J59"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="223.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="218.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="136.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="91.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="129.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B41" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B46" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="B49" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B50" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B55" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B56" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B57" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B58" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD91AB8C-B57B-4143-8646-F2ED19A6C1D0}">
+  <dimension ref="A3:I76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:I54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:I29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>